--- a/ch4-spreadsheets/res/formulas_review.xlsx
+++ b/ch4-spreadsheets/res/formulas_review.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{977FCD61-BAA7-4429-A7D8-8243D25885AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{977FCD61-BAA7-4429-A7D8-8243D25885AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Operand</t>
   </si>
@@ -133,13 +133,31 @@
   </si>
   <si>
     <t>Fudgeruckers</t>
+  </si>
+  <si>
+    <t>Word Problem:</t>
+  </si>
+  <si>
+    <t>There are four roommates, Jeff, Franklin, Deena, and Francine, and it's time to pay the cable/internet bill. The total bill is $125. Included in the bill is a basic cable package and a high speed internet connection. The cable package is $38 per month and there is a $12 fee for renting the DVR which only Jeff and Deena use and split the cost for. Francine does not use the internet at all, but watches plenty of TV and thus only has to pay for cable. Who pays what?</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Deena</t>
+  </si>
+  <si>
+    <t>Francine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +216,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -238,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -319,8 +345,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -330,8 +365,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7"/>
@@ -343,26 +379,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="60% - Accent2" xfId="7" builtinId="36"/>
     <cellStyle name="Accent2" xfId="6" builtinId="33"/>
     <cellStyle name="Accent3" xfId="8" builtinId="37"/>
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Explanatory Text" xfId="9" builtinId="53"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
@@ -678,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A057F81D-EF08-4C34-AF13-FF2C0ECE96A6}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,10 +814,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -798,11 +844,11 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -811,7 +857,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -819,28 +865,123 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="6"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A25:E32"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -850,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F42511D-2DC4-4CD4-B128-3746DF5BF0CD}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -864,46 +1005,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="11">
         <v>0.08</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="9">
@@ -917,7 +1058,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="9">
@@ -931,7 +1072,7 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="9">
@@ -945,7 +1086,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="9">
@@ -959,7 +1100,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="9">
@@ -973,7 +1114,7 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="9">
@@ -987,7 +1128,7 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="9">
@@ -1001,7 +1142,7 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="9">
@@ -1015,7 +1156,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="9">
@@ -1029,7 +1170,7 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="9">
@@ -1043,7 +1184,7 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="10">
@@ -1062,8 +1203,8 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
